--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value100.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value100.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.031850169292914</v>
+        <v>2.454385280609131</v>
       </c>
       <c r="B1">
-        <v>1.658846913659941</v>
+        <v>2.980066061019897</v>
       </c>
       <c r="C1">
-        <v>4.188565725646995</v>
+        <v>2.622552633285522</v>
       </c>
       <c r="D1">
-        <v>3.189336570095672</v>
+        <v>1.670663833618164</v>
       </c>
       <c r="E1">
-        <v>0.9486511531337524</v>
+        <v>0.8170940279960632</v>
       </c>
     </row>
   </sheetData>
